--- a/General_Results_and_Plotting/Mid_Modeled_Updated620.xlsx
+++ b/General_Results_and_Plotting/Mid_Modeled_Updated620.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Desktop\FBA Paper Revisions\Figure Generation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaste2\Downloads\Maize-Rhizobia-AMF_FBA-main\General_Results_and_Plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E920058-9668-45CE-9CA5-C269B8DC0958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C591ACC5-2DB2-445F-BFD3-7A2A498EC3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,15 +349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:W1048576"/>
+      <selection activeCell="A14" sqref="A14:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B1">
         <v>10</v>
       </c>
@@ -388,355 +389,455 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
-        <v>803.3374386055865</v>
+        <v>787</v>
       </c>
       <c r="C2">
-        <v>358.96170819288636</v>
+        <v>351</v>
       </c>
       <c r="D2">
-        <v>210.64752132813922</v>
+        <v>206</v>
       </c>
       <c r="E2">
-        <v>136.42845721669812</v>
+        <v>134</v>
       </c>
       <c r="F2">
-        <v>91.709679393841469</v>
+        <v>90</v>
       </c>
       <c r="G2">
-        <v>61.756182680881288</v>
+        <v>61</v>
       </c>
       <c r="H2">
-        <v>40.332696785928093</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>24.23077543423403</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>10.749102716253519</v>
+        <v>10</v>
       </c>
       <c r="K2">
-        <v>-0.1743367436874047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>90</v>
       </c>
       <c r="B3">
-        <v>803.32547968497147</v>
+        <v>787</v>
       </c>
       <c r="C3">
-        <v>358.97385189528057</v>
+        <v>351</v>
       </c>
       <c r="D3">
-        <v>210.67070351208793</v>
+        <v>206</v>
       </c>
       <c r="E3">
-        <v>136.45541560931116</v>
+        <v>134</v>
       </c>
       <c r="F3">
-        <v>91.738078791509338</v>
+        <v>90</v>
       </c>
       <c r="G3">
-        <v>61.785242141798058</v>
+        <v>61</v>
       </c>
       <c r="H3">
-        <v>40.362846175300227</v>
+        <v>40</v>
       </c>
       <c r="I3">
-        <v>24.26103260888971</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>10.76381096457713</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>10.901761932765909</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>80</v>
       </c>
       <c r="B4">
-        <v>803.44384506991207</v>
+        <v>787</v>
       </c>
       <c r="C4">
-        <v>359.14885817098474</v>
+        <v>352</v>
       </c>
       <c r="D4">
-        <v>210.78548358715068</v>
+        <v>206</v>
       </c>
       <c r="E4">
-        <v>136.54461643665266</v>
+        <v>134</v>
       </c>
       <c r="F4">
-        <v>91.807021961995119</v>
+        <v>90</v>
       </c>
       <c r="G4">
-        <v>61.841809322346549</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>40.410886498211013</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>24.303423820143209</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>24.629876013086573</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>24.745649069886557</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>70</v>
       </c>
       <c r="B5">
-        <v>803.78677037905868</v>
+        <v>788</v>
       </c>
       <c r="C5">
-        <v>359.32389841219162</v>
+        <v>352</v>
       </c>
       <c r="D5">
-        <v>210.90270049463459</v>
+        <v>207</v>
       </c>
       <c r="E5">
-        <v>136.63381726391771</v>
+        <v>134</v>
       </c>
       <c r="F5">
-        <v>91.875965134692279</v>
+        <v>90</v>
       </c>
       <c r="G5">
-        <v>61.898219386639376</v>
+        <v>61</v>
       </c>
       <c r="H5">
-        <v>40.459211966616401</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>42.109503245168725</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>42.456637229098376</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>42.545359696194545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>60</v>
       </c>
       <c r="B6">
-        <v>804.13522046209312</v>
+        <v>788</v>
       </c>
       <c r="C6">
-        <v>359.4965229778997</v>
+        <v>352</v>
       </c>
       <c r="D6">
-        <v>211.01824209180839</v>
+        <v>207</v>
       </c>
       <c r="E6">
-        <v>136.72301809069495</v>
+        <v>134</v>
       </c>
       <c r="F6">
-        <v>91.944908306219929</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>61.954629494610735</v>
+        <v>61</v>
       </c>
       <c r="H6">
-        <v>63.925460828344463</v>
+        <v>63</v>
       </c>
       <c r="I6">
-        <v>65.850942140061989</v>
+        <v>65</v>
       </c>
       <c r="J6">
-        <v>66.224418476578663</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>66.277134380060815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7">
-        <v>804.48367055701965</v>
+        <v>788</v>
       </c>
       <c r="C7">
-        <v>359.6718889065524</v>
+        <v>352</v>
       </c>
       <c r="D7">
-        <v>211.13426206753792</v>
+        <v>207</v>
       </c>
       <c r="E7">
-        <v>136.81194538287957</v>
+        <v>134</v>
       </c>
       <c r="F7">
-        <v>92.013851478291429</v>
+        <v>90</v>
       </c>
       <c r="G7">
-        <v>94.413225603539104</v>
+        <v>93</v>
       </c>
       <c r="H7">
-        <v>96.7782087651632</v>
+        <v>96</v>
       </c>
       <c r="I7">
-        <v>99.088955904475142</v>
+        <v>99</v>
       </c>
       <c r="J7">
-        <v>99.501307996430185</v>
+        <v>99</v>
       </c>
       <c r="K7">
-        <v>99.502739969296911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>40</v>
       </c>
       <c r="B8">
-        <v>804.83212064803433</v>
+        <v>789</v>
       </c>
       <c r="C8">
-        <v>359.84820049615627</v>
+        <v>352</v>
       </c>
       <c r="D8">
-        <v>211.25008677942822</v>
+        <v>207</v>
       </c>
       <c r="E8">
-        <v>136.89919074822197</v>
+        <v>134</v>
       </c>
       <c r="F8">
-        <v>140.10177080164374</v>
+        <v>138</v>
       </c>
       <c r="G8">
-        <v>143.10110208882091</v>
+        <v>142</v>
       </c>
       <c r="H8">
-        <v>146.05752950270164</v>
+        <v>145</v>
       </c>
       <c r="I8">
-        <v>148.94374869004326</v>
+        <v>148</v>
       </c>
       <c r="J8">
-        <v>149.34114811800751</v>
+        <v>149</v>
       </c>
       <c r="K8">
-        <v>149.34114811847687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>30</v>
       </c>
       <c r="B9">
-        <v>805.16853640141721</v>
+        <v>789</v>
       </c>
       <c r="C9">
-        <v>360.01138777010635</v>
+        <v>352</v>
       </c>
       <c r="D9">
-        <v>211.36035963981575</v>
+        <v>207</v>
       </c>
       <c r="E9">
-        <v>215.97414763333046</v>
+        <v>212</v>
       </c>
       <c r="F9">
-        <v>215.99999952086293</v>
+        <v>216</v>
       </c>
       <c r="G9">
-        <v>215.99999788199088</v>
+        <v>216</v>
       </c>
       <c r="H9">
-        <v>216.00000000669897</v>
+        <v>216</v>
       </c>
       <c r="I9">
-        <v>215.99999993889915</v>
+        <v>216</v>
       </c>
       <c r="J9">
-        <v>215.99999959529237</v>
+        <v>216</v>
       </c>
       <c r="K9">
-        <v>215.99999947775319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
-        <v>532.00000075680555</v>
+        <v>532</v>
       </c>
       <c r="C10">
-        <v>215.99999986515309</v>
+        <v>216</v>
       </c>
       <c r="D10">
-        <v>215.99999873400185</v>
+        <v>216</v>
       </c>
       <c r="E10">
-        <v>215.99999910047026</v>
+        <v>216</v>
       </c>
       <c r="F10">
-        <v>215.99999913321918</v>
+        <v>216</v>
       </c>
       <c r="G10">
-        <v>216.00000084961559</v>
+        <v>216</v>
       </c>
       <c r="H10">
-        <v>216.00000074120129</v>
+        <v>216</v>
       </c>
       <c r="I10">
-        <v>215.99999948363427</v>
+        <v>216</v>
       </c>
       <c r="J10">
-        <v>216.00000033988982</v>
+        <v>216</v>
       </c>
       <c r="K10">
-        <v>216.00000033988982</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>215.99999986161743</v>
+        <v>216</v>
       </c>
       <c r="C11">
-        <v>215.99999951865709</v>
+        <v>216</v>
       </c>
       <c r="D11">
-        <v>216.00000470244777</v>
+        <v>216</v>
       </c>
       <c r="E11">
-        <v>216.000001153374</v>
+        <v>216</v>
       </c>
       <c r="F11">
-        <v>216.00000077295061</v>
+        <v>216</v>
       </c>
       <c r="G11">
-        <v>215.99999806441468</v>
+        <v>216</v>
       </c>
       <c r="H11">
-        <v>215.99999977928297</v>
+        <v>216</v>
       </c>
       <c r="I11">
-        <v>216.00000099894379</v>
+        <v>216</v>
       </c>
       <c r="J11">
-        <v>216.00000493808591</v>
+        <v>216</v>
       </c>
       <c r="K11">
-        <v>216.00000329675342</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
